--- a/Intensity_Runs_77K/77K_Section_A.xlsx
+++ b/Intensity_Runs_77K/77K_Section_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Durham Work\Year 3\Advanced Lab\Intensity Runs 77.1K\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931E453F-381A-4438-8458-421F28157A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69560F2-93CB-482A-AFA2-4529C5498F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5AC74D68-CC39-42C0-86B7-CACC2B73E0F8}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5AC74D68-CC39-42C0-86B7-CACC2B73E0F8}"/>
   </bookViews>
   <sheets>
     <sheet name="9830" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>WS_0</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>index</t>
   </si>
 </sst>
 </file>
@@ -460,15 +463,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD3FB63-6E8E-4E79-8CAB-A45825D64FC1}">
-  <dimension ref="A1:H251"/>
+  <dimension ref="A1:I251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,8 +496,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>7.4000000000000001E-7</v>
       </c>
@@ -519,8 +525,11 @@
       <c r="H2" s="1">
         <v>7.9999999999999996E-7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8.6000000000000002E-7</v>
       </c>
@@ -545,8 +554,11 @@
       <c r="H3" s="1">
         <v>7.6000000000000003E-7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>8.9999999999999996E-7</v>
       </c>
@@ -571,8 +583,11 @@
       <c r="H4" s="1">
         <v>7.8000000000000005E-7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8.9999999999999996E-7</v>
       </c>
@@ -597,8 +612,11 @@
       <c r="H5" s="1">
         <v>8.9999999999999996E-7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>9.1999999999999998E-7</v>
       </c>
@@ -623,8 +641,11 @@
       <c r="H6" s="1">
         <v>9.4E-7</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>9.5999999999999991E-7</v>
       </c>
@@ -649,8 +670,11 @@
       <c r="H7" s="1">
         <v>9.4E-7</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>9.5999999999999991E-7</v>
       </c>
@@ -675,8 +699,11 @@
       <c r="H8" s="1">
         <v>9.7999999999999993E-7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1.06E-6</v>
       </c>
@@ -701,8 +728,11 @@
       <c r="H9" s="1">
         <v>9.7999999999999993E-7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1.06E-6</v>
       </c>
@@ -727,8 +757,11 @@
       <c r="H10" s="1">
         <v>1.04E-6</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1.06E-6</v>
       </c>
@@ -753,8 +786,11 @@
       <c r="H11" s="1">
         <v>1.08E-6</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1.1000000000000001E-6</v>
       </c>
@@ -779,8 +815,11 @@
       <c r="H12" s="1">
         <v>1.06E-6</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1.22E-6</v>
       </c>
@@ -805,8 +844,11 @@
       <c r="H13" s="1">
         <v>1.1000000000000001E-6</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1.24E-6</v>
       </c>
@@ -831,8 +873,11 @@
       <c r="H14" s="1">
         <v>1.22E-6</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1.24E-6</v>
       </c>
@@ -857,8 +902,11 @@
       <c r="H15" s="1">
         <v>1.3200000000000001E-6</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1.3599999999999999E-6</v>
       </c>
@@ -883,8 +931,11 @@
       <c r="H16" s="1">
         <v>1.3400000000000001E-6</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1.3400000000000001E-6</v>
       </c>
@@ -909,8 +960,11 @@
       <c r="H17" s="1">
         <v>1.3200000000000001E-6</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1.44E-6</v>
       </c>
@@ -935,8 +989,11 @@
       <c r="H18" s="1">
         <v>1.48E-6</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1.5400000000000001E-6</v>
       </c>
@@ -961,8 +1018,11 @@
       <c r="H19" s="1">
         <v>1.48E-6</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1.64E-6</v>
       </c>
@@ -987,8 +1047,11 @@
       <c r="H20" s="1">
         <v>1.66E-6</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1.66E-6</v>
       </c>
@@ -1013,8 +1076,11 @@
       <c r="H21" s="1">
         <v>1.6199999999999999E-6</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1.7400000000000001E-6</v>
       </c>
@@ -1039,8 +1105,11 @@
       <c r="H22" s="1">
         <v>1.7400000000000001E-6</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1.7799999999999999E-6</v>
       </c>
@@ -1065,8 +1134,11 @@
       <c r="H23" s="1">
         <v>1.7600000000000001E-6</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1.8199999999999999E-6</v>
       </c>
@@ -1091,8 +1163,11 @@
       <c r="H24" s="1">
         <v>1.7600000000000001E-6</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1.8199999999999999E-6</v>
       </c>
@@ -1117,8 +1192,11 @@
       <c r="H25" s="1">
         <v>1.88E-6</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1.88E-6</v>
       </c>
@@ -1143,8 +1221,11 @@
       <c r="H26" s="1">
         <v>1.88E-6</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1.8199999999999999E-6</v>
       </c>
@@ -1169,8 +1250,11 @@
       <c r="H27" s="1">
         <v>1.88E-6</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1.88E-6</v>
       </c>
@@ -1195,8 +1279,11 @@
       <c r="H28" s="1">
         <v>1.84E-6</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1.88E-6</v>
       </c>
@@ -1221,8 +1308,11 @@
       <c r="H29" s="1">
         <v>1.86E-6</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1.9E-6</v>
       </c>
@@ -1247,10 +1337,13 @@
       <c r="H30" s="1">
         <v>1.9599999999999999E-6</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>1.6439999999999998E-5</v>
+        <v>2.0999999999999998E-6</v>
       </c>
       <c r="B31" s="1">
         <v>1.88E-6</v>
@@ -1273,10 +1366,13 @@
       <c r="H31" s="1">
         <v>1.88E-6</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>6.6800000000000004E-6</v>
+        <v>2.1399999999999998E-6</v>
       </c>
       <c r="B32" s="1">
         <v>1.9199999999999998E-6</v>
@@ -1299,10 +1395,13 @@
       <c r="H32" s="1">
         <v>1.9599999999999999E-6</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>3.9600000000000002E-6</v>
+        <v>2.1799999999999999E-6</v>
       </c>
       <c r="B33" s="1">
         <v>2.0200000000000001E-6</v>
@@ -1325,10 +1424,13 @@
       <c r="H33" s="1">
         <v>1.9800000000000001E-6</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>8.3399999999999998E-6</v>
+        <v>2.2199999999999999E-6</v>
       </c>
       <c r="B34" s="1">
         <v>1.9999999999999999E-6</v>
@@ -1351,10 +1453,13 @@
       <c r="H34" s="1">
         <v>2.0999999999999998E-6</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>6.9399999999999996E-6</v>
+        <v>2.26E-6</v>
       </c>
       <c r="B35" s="1">
         <v>2.0600000000000002E-6</v>
@@ -1377,10 +1482,13 @@
       <c r="H35" s="1">
         <v>2.12E-6</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>2.7999999999999999E-6</v>
+        <v>2.3E-6</v>
       </c>
       <c r="B36" s="1">
         <v>2.2199999999999999E-6</v>
@@ -1403,10 +1511,13 @@
       <c r="H36" s="1">
         <v>2.2400000000000002E-6</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>8.2400000000000007E-6</v>
+        <v>2.34E-6</v>
       </c>
       <c r="B37" s="1">
         <v>2.26E-6</v>
@@ -1429,10 +1540,13 @@
       <c r="H37" s="1">
         <v>2.34E-6</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>9.8200000000000008E-6</v>
+        <v>2.3800000000000001E-6</v>
       </c>
       <c r="B38" s="1">
         <v>2.26E-6</v>
@@ -1455,10 +1569,13 @@
       <c r="H38" s="1">
         <v>2.48E-6</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>2.9799999999999998E-6</v>
+        <v>2.4200000000000001E-6</v>
       </c>
       <c r="B39" s="1">
         <v>2.4200000000000001E-6</v>
@@ -1481,10 +1598,13 @@
       <c r="H39" s="1">
         <v>2.48E-6</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>2.5799999999999999E-6</v>
+        <v>2.4600000000000002E-6</v>
       </c>
       <c r="B40" s="1">
         <v>2.5000000000000002E-6</v>
@@ -1507,10 +1627,13 @@
       <c r="H40" s="1">
         <v>2.5399999999999998E-6</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>8.0800000000000006E-6</v>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="B41" s="1">
         <v>2.6199999999999999E-6</v>
@@ -1533,10 +1656,13 @@
       <c r="H41" s="1">
         <v>2.7199999999999998E-6</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>1.5719999999999999E-5</v>
+        <v>2.5399999999999998E-6</v>
       </c>
       <c r="B42" s="1">
         <v>2.74E-6</v>
@@ -1559,10 +1685,13 @@
       <c r="H42" s="1">
         <v>2.7E-6</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>2.9000000000000002E-6</v>
+        <v>2.5799999999999999E-6</v>
       </c>
       <c r="B43" s="1">
         <v>2.7999999999999999E-6</v>
@@ -1585,8 +1714,11 @@
       <c r="H43" s="1">
         <v>2.7999999999999999E-6</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2.4399999999999999E-6</v>
       </c>
@@ -1611,8 +1743,11 @@
       <c r="H44" s="1">
         <v>2.8399999999999999E-6</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2.9799999999999998E-6</v>
       </c>
@@ -1637,8 +1772,11 @@
       <c r="H45" s="1">
         <v>2.9799999999999998E-6</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>3.0199999999999999E-6</v>
       </c>
@@ -1663,8 +1801,11 @@
       <c r="H46" s="1">
         <v>3.0199999999999999E-6</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3.0400000000000001E-6</v>
       </c>
@@ -1689,8 +1830,11 @@
       <c r="H47" s="1">
         <v>3.0000000000000001E-6</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3.0400000000000001E-6</v>
       </c>
@@ -1715,8 +1859,11 @@
       <c r="H48" s="1">
         <v>3.0199999999999999E-6</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2.9799999999999998E-6</v>
       </c>
@@ -1741,8 +1888,11 @@
       <c r="H49" s="1">
         <v>3.0199999999999999E-6</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>3.0800000000000002E-6</v>
       </c>
@@ -1767,8 +1917,11 @@
       <c r="H50" s="1">
         <v>3.0400000000000001E-6</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>3.0800000000000002E-6</v>
       </c>
@@ -1793,8 +1946,11 @@
       <c r="H51" s="1">
         <v>2.9399999999999998E-6</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>3.0400000000000001E-6</v>
       </c>
@@ -1819,8 +1975,11 @@
       <c r="H52" s="1">
         <v>2.9399999999999998E-6</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2.9799999999999998E-6</v>
       </c>
@@ -1845,8 +2004,11 @@
       <c r="H53" s="1">
         <v>2.9799999999999998E-6</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>3.0199999999999999E-6</v>
       </c>
@@ -1871,8 +2033,11 @@
       <c r="H54" s="1">
         <v>3.0400000000000001E-6</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2.96E-6</v>
       </c>
@@ -1897,8 +2062,11 @@
       <c r="H55" s="1">
         <v>2.96E-6</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>3.0800000000000002E-6</v>
       </c>
@@ -1923,8 +2091,11 @@
       <c r="H56" s="1">
         <v>3.0000000000000001E-6</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>3.0199999999999999E-6</v>
       </c>
@@ -1949,8 +2120,11 @@
       <c r="H57" s="1">
         <v>3.1200000000000002E-6</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2.92E-6</v>
       </c>
@@ -1975,8 +2149,11 @@
       <c r="H58" s="1">
         <v>3.18E-6</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>3.18E-6</v>
       </c>
@@ -2001,8 +2178,11 @@
       <c r="H59" s="1">
         <v>3.2200000000000001E-6</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>3.32E-6</v>
       </c>
@@ -2027,8 +2207,11 @@
       <c r="H60" s="1">
         <v>3.3799999999999998E-6</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>3.4800000000000001E-6</v>
       </c>
@@ -2053,8 +2236,11 @@
       <c r="H61" s="1">
         <v>3.4800000000000001E-6</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>3.7000000000000002E-6</v>
       </c>
@@ -2079,8 +2265,11 @@
       <c r="H62" s="1">
         <v>3.6200000000000001E-6</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>3.8600000000000003E-6</v>
       </c>
@@ -2105,8 +2294,11 @@
       <c r="H63" s="1">
         <v>3.76E-6</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>4.0600000000000001E-6</v>
       </c>
@@ -2131,8 +2323,11 @@
       <c r="H64" s="1">
         <v>3.9400000000000004E-6</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>4.2799999999999997E-6</v>
       </c>
@@ -2157,8 +2352,11 @@
       <c r="H65" s="1">
         <v>4.2400000000000001E-6</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>4.4800000000000003E-6</v>
       </c>
@@ -2183,8 +2381,11 @@
       <c r="H66" s="1">
         <v>4.4800000000000003E-6</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>4.78E-6</v>
       </c>
@@ -2209,8 +2410,11 @@
       <c r="H67" s="1">
         <v>4.6E-6</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>4.9200000000000003E-6</v>
       </c>
@@ -2235,8 +2439,11 @@
       <c r="H68" s="1">
         <v>4.8600000000000001E-6</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>5.1599999999999997E-6</v>
       </c>
@@ -2261,8 +2468,11 @@
       <c r="H69" s="1">
         <v>5.1000000000000003E-6</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>5.3600000000000004E-6</v>
       </c>
@@ -2287,8 +2497,11 @@
       <c r="H70" s="1">
         <v>5.22E-6</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>5.5799999999999999E-6</v>
       </c>
@@ -2313,8 +2526,11 @@
       <c r="H71" s="1">
         <v>5.48E-6</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>5.8200000000000002E-6</v>
       </c>
@@ -2339,8 +2555,11 @@
       <c r="H72" s="1">
         <v>5.6200000000000004E-6</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>5.9800000000000003E-6</v>
       </c>
@@ -2365,8 +2584,11 @@
       <c r="H73" s="1">
         <v>5.7799999999999997E-6</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>6.1800000000000001E-6</v>
       </c>
@@ -2391,8 +2613,11 @@
       <c r="H74" s="1">
         <v>5.9200000000000001E-6</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>6.3199999999999996E-6</v>
       </c>
@@ -2417,8 +2642,11 @@
       <c r="H75" s="1">
         <v>6.1399999999999997E-6</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>6.4999999999999996E-6</v>
       </c>
@@ -2443,8 +2671,11 @@
       <c r="H76" s="1">
         <v>6.1600000000000003E-6</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>6.6000000000000003E-6</v>
       </c>
@@ -2469,8 +2700,11 @@
       <c r="H77" s="1">
         <v>6.3600000000000001E-6</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>6.7599999999999997E-6</v>
       </c>
@@ -2495,8 +2729,11 @@
       <c r="H78" s="1">
         <v>6.5799999999999997E-6</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>6.9E-6</v>
       </c>
@@ -2521,8 +2758,11 @@
       <c r="H79" s="1">
         <v>6.6800000000000004E-6</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>6.9399999999999996E-6</v>
       </c>
@@ -2547,8 +2787,11 @@
       <c r="H80" s="1">
         <v>6.8800000000000002E-6</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>7.1799999999999999E-6</v>
       </c>
@@ -2573,8 +2816,11 @@
       <c r="H81" s="1">
         <v>6.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>7.3000000000000004E-6</v>
       </c>
@@ -2599,8 +2845,11 @@
       <c r="H82" s="1">
         <v>7.1199999999999996E-6</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>7.4599999999999997E-6</v>
       </c>
@@ -2625,8 +2874,11 @@
       <c r="H83" s="1">
         <v>7.3200000000000002E-6</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>7.7000000000000008E-6</v>
       </c>
@@ -2651,8 +2903,11 @@
       <c r="H84" s="1">
         <v>7.5599999999999996E-6</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>7.9799999999999998E-6</v>
       </c>
@@ -2677,8 +2932,11 @@
       <c r="H85" s="1">
         <v>7.8199999999999997E-6</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>8.2800000000000003E-6</v>
       </c>
@@ -2703,8 +2961,11 @@
       <c r="H86" s="1">
         <v>8.1599999999999998E-6</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>8.6400000000000003E-6</v>
       </c>
@@ -2729,8 +2990,11 @@
       <c r="H87" s="1">
         <v>8.5399999999999996E-6</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>8.9199999999999993E-6</v>
       </c>
@@ -2755,8 +3019,11 @@
       <c r="H88" s="1">
         <v>8.8200000000000003E-6</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>9.2599999999999994E-6</v>
       </c>
@@ -2781,8 +3048,11 @@
       <c r="H89" s="1">
         <v>9.1600000000000004E-6</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>9.6600000000000007E-6</v>
       </c>
@@ -2807,8 +3077,11 @@
       <c r="H90" s="1">
         <v>9.4399999999999994E-6</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1.0200000000000001E-5</v>
       </c>
@@ -2833,8 +3106,11 @@
       <c r="H91" s="1">
         <v>9.8400000000000007E-6</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1.0560000000000001E-5</v>
       </c>
@@ -2859,8 +3135,11 @@
       <c r="H92" s="1">
         <v>1.0159999999999999E-5</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1.0900000000000001E-5</v>
       </c>
@@ -2885,8 +3164,11 @@
       <c r="H93" s="1">
         <v>1.06E-5</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1.1199999999999999E-5</v>
       </c>
@@ -2911,8 +3193,11 @@
       <c r="H94" s="1">
         <v>1.082E-5</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>1.1379999999999999E-5</v>
       </c>
@@ -2937,8 +3222,11 @@
       <c r="H95" s="1">
         <v>1.096E-5</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>1.1420000000000001E-5</v>
       </c>
@@ -2963,8 +3251,11 @@
       <c r="H96" s="1">
         <v>1.118E-5</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1.15E-5</v>
       </c>
@@ -2989,8 +3280,11 @@
       <c r="H97" s="1">
         <v>1.13E-5</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>1.146E-5</v>
       </c>
@@ -3015,8 +3309,11 @@
       <c r="H98" s="1">
         <v>1.13E-5</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>1.13E-5</v>
       </c>
@@ -3041,8 +3338,11 @@
       <c r="H99" s="1">
         <v>1.114E-5</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>1.116E-5</v>
       </c>
@@ -3067,8 +3367,11 @@
       <c r="H100" s="1">
         <v>1.096E-5</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1.08E-5</v>
       </c>
@@ -3093,8 +3396,11 @@
       <c r="H101" s="1">
         <v>1.0679999999999999E-5</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1.04E-5</v>
       </c>
@@ -3119,8 +3425,11 @@
       <c r="H102" s="1">
         <v>1.024E-5</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>9.9599999999999995E-6</v>
       </c>
@@ -3145,8 +3454,11 @@
       <c r="H103" s="1">
         <v>9.8200000000000008E-6</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>9.4599999999999992E-6</v>
       </c>
@@ -3171,8 +3483,11 @@
       <c r="H104" s="1">
         <v>9.3200000000000006E-6</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>8.9400000000000008E-6</v>
       </c>
@@ -3197,8 +3512,11 @@
       <c r="H105" s="1">
         <v>8.6999999999999997E-6</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>8.3799999999999994E-6</v>
       </c>
@@ -3223,8 +3541,11 @@
       <c r="H106" s="1">
         <v>8.2800000000000003E-6</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>7.9400000000000002E-6</v>
       </c>
@@ -3249,8 +3570,11 @@
       <c r="H107" s="1">
         <v>7.8599999999999993E-6</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>7.4200000000000001E-6</v>
       </c>
@@ -3275,8 +3599,11 @@
       <c r="H108" s="1">
         <v>7.4599999999999997E-6</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>7.0199999999999997E-6</v>
       </c>
@@ -3301,8 +3628,11 @@
       <c r="H109" s="1">
         <v>7.1199999999999996E-6</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>6.64E-6</v>
       </c>
@@ -3327,8 +3657,11 @@
       <c r="H110" s="1">
         <v>6.8199999999999999E-6</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>6.5200000000000003E-6</v>
       </c>
@@ -3353,8 +3686,11 @@
       <c r="H111" s="1">
         <v>6.6800000000000004E-6</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>6.3799999999999999E-6</v>
       </c>
@@ -3379,8 +3715,11 @@
       <c r="H112" s="1">
         <v>6.4400000000000002E-6</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>6.28E-6</v>
       </c>
@@ -3405,8 +3744,11 @@
       <c r="H113" s="1">
         <v>6.2199999999999997E-6</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>6.3199999999999996E-6</v>
       </c>
@@ -3431,8 +3773,11 @@
       <c r="H114" s="1">
         <v>6.1399999999999997E-6</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>6.4400000000000002E-6</v>
       </c>
@@ -3457,8 +3802,11 @@
       <c r="H115" s="1">
         <v>6.3199999999999996E-6</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>6.6000000000000003E-6</v>
       </c>
@@ -3483,8 +3831,11 @@
       <c r="H116" s="1">
         <v>6.4200000000000004E-6</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>6.8000000000000001E-6</v>
       </c>
@@ -3509,8 +3860,11 @@
       <c r="H117" s="1">
         <v>6.6000000000000003E-6</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>7.0400000000000004E-6</v>
       </c>
@@ -3535,8 +3889,11 @@
       <c r="H118" s="1">
         <v>6.8399999999999997E-6</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>7.3000000000000004E-6</v>
       </c>
@@ -3561,8 +3918,11 @@
       <c r="H119" s="1">
         <v>7.2400000000000001E-6</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>7.5599999999999996E-6</v>
       </c>
@@ -3587,8 +3947,11 @@
       <c r="H120" s="1">
         <v>7.4200000000000001E-6</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>7.7600000000000002E-6</v>
       </c>
@@ -3613,8 +3976,11 @@
       <c r="H121" s="1">
         <v>7.7600000000000002E-6</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>7.8599999999999993E-6</v>
       </c>
@@ -3639,8 +4005,11 @@
       <c r="H122" s="1">
         <v>7.8599999999999993E-6</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>8.1200000000000002E-6</v>
       </c>
@@ -3665,8 +4034,11 @@
       <c r="H123" s="1">
         <v>7.96E-6</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>8.1799999999999996E-6</v>
       </c>
@@ -3691,8 +4063,11 @@
       <c r="H124" s="1">
         <v>8.0600000000000008E-6</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>8.2600000000000005E-6</v>
       </c>
@@ -3717,8 +4092,11 @@
       <c r="H125" s="1">
         <v>8.0600000000000008E-6</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>8.2199999999999992E-6</v>
       </c>
@@ -3743,8 +4121,11 @@
       <c r="H126" s="1">
         <v>8.0199999999999994E-6</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>8.1200000000000002E-6</v>
       </c>
@@ -3769,8 +4150,11 @@
       <c r="H127" s="1">
         <v>7.9999999999999996E-6</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>8.0800000000000006E-6</v>
       </c>
@@ -3795,8 +4179,11 @@
       <c r="H128" s="1">
         <v>7.7999999999999999E-6</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>7.8399999999999995E-6</v>
       </c>
@@ -3810,7 +4197,7 @@
         <v>7.7400000000000004E-6</v>
       </c>
       <c r="E129" s="1">
-        <v>1.188E-5</v>
+        <v>7.5000000000000002E-6</v>
       </c>
       <c r="F129" s="1">
         <v>7.52E-6</v>
@@ -3821,8 +4208,11 @@
       <c r="H129" s="1">
         <v>7.7200000000000006E-6</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>7.5399999999999998E-6</v>
       </c>
@@ -3836,7 +4226,7 @@
         <v>7.5000000000000002E-6</v>
       </c>
       <c r="E130" s="1">
-        <v>6.0000000000000002E-6</v>
+        <v>7.3799999999999996E-6</v>
       </c>
       <c r="F130" s="1">
         <v>7.4399999999999999E-6</v>
@@ -3847,8 +4237,11 @@
       <c r="H130" s="1">
         <v>7.4800000000000004E-6</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>7.2799999999999998E-6</v>
       </c>
@@ -3873,8 +4266,11 @@
       <c r="H131" s="1">
         <v>7.1600000000000001E-6</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>7.0199999999999997E-6</v>
       </c>
@@ -3899,8 +4295,11 @@
       <c r="H132" s="1">
         <v>6.8800000000000002E-6</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>6.7000000000000002E-6</v>
       </c>
@@ -3925,8 +4324,11 @@
       <c r="H133" s="1">
         <v>6.6000000000000003E-6</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>6.3600000000000001E-6</v>
       </c>
@@ -3951,8 +4353,11 @@
       <c r="H134" s="1">
         <v>6.2400000000000004E-6</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>6.0000000000000002E-6</v>
       </c>
@@ -3977,8 +4382,11 @@
       <c r="H135" s="1">
         <v>5.8599999999999998E-6</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>5.5600000000000001E-6</v>
       </c>
@@ -4003,8 +4411,11 @@
       <c r="H136" s="1">
         <v>5.4600000000000002E-6</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>5.2399999999999998E-6</v>
       </c>
@@ -4029,8 +4440,11 @@
       <c r="H137" s="1">
         <v>5.04E-6</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>4.8400000000000002E-6</v>
       </c>
@@ -4055,8 +4469,11 @@
       <c r="H138" s="1">
         <v>4.7400000000000004E-6</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I138" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>4.42E-6</v>
       </c>
@@ -4081,8 +4498,11 @@
       <c r="H139" s="1">
         <v>4.2599999999999999E-6</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>4.1200000000000004E-6</v>
       </c>
@@ -4107,8 +4527,11 @@
       <c r="H140" s="1">
         <v>3.8399999999999997E-6</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>3.7799999999999998E-6</v>
       </c>
@@ -4133,8 +4556,11 @@
       <c r="H141" s="1">
         <v>3.54E-6</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I141" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>3.4999999999999999E-6</v>
       </c>
@@ -4159,8 +4585,11 @@
       <c r="H142" s="1">
         <v>3.2399999999999999E-6</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>3.0800000000000002E-6</v>
       </c>
@@ -4185,8 +4614,11 @@
       <c r="H143" s="1">
         <v>3.0000000000000001E-6</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I143" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2.88E-6</v>
       </c>
@@ -4211,8 +4643,11 @@
       <c r="H144" s="1">
         <v>2.74E-6</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2.6199999999999999E-6</v>
       </c>
@@ -4237,8 +4672,11 @@
       <c r="H145" s="1">
         <v>2.52E-6</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2.34E-6</v>
       </c>
@@ -4263,8 +4701,11 @@
       <c r="H146" s="1">
         <v>2.3199999999999998E-6</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I146" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2.0999999999999998E-6</v>
       </c>
@@ -4289,8 +4730,11 @@
       <c r="H147" s="1">
         <v>2.1799999999999999E-6</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I147" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>1.9E-6</v>
       </c>
@@ -4315,8 +4759,11 @@
       <c r="H148" s="1">
         <v>1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I148" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>1.68E-6</v>
       </c>
@@ -4341,8 +4788,11 @@
       <c r="H149" s="1">
         <v>1.86E-6</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>1.5400000000000001E-6</v>
       </c>
@@ -4367,8 +4817,11 @@
       <c r="H150" s="1">
         <v>1.64E-6</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>1.42E-6</v>
       </c>
@@ -4393,8 +4846,11 @@
       <c r="H151" s="1">
         <v>1.42E-6</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I151" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>1.3400000000000001E-6</v>
       </c>
@@ -4419,8 +4875,11 @@
       <c r="H152" s="1">
         <v>1.28E-6</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I152" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>1.1999999999999999E-6</v>
       </c>
@@ -4445,8 +4904,11 @@
       <c r="H153" s="1">
         <v>1.1599999999999999E-6</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I153" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>1.1000000000000001E-6</v>
       </c>
@@ -4471,8 +4933,11 @@
       <c r="H154" s="1">
         <v>1.1000000000000001E-6</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I154" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>1.08E-6</v>
       </c>
@@ -4497,8 +4962,11 @@
       <c r="H155" s="1">
         <v>1.02E-6</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I155" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>1.04E-6</v>
       </c>
@@ -4523,8 +4991,11 @@
       <c r="H156" s="1">
         <v>9.5999999999999991E-7</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I156" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>8.9999999999999996E-7</v>
       </c>
@@ -4549,8 +5020,11 @@
       <c r="H157" s="1">
         <v>8.9999999999999996E-7</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I157" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>7.6000000000000003E-7</v>
       </c>
@@ -4575,8 +5049,11 @@
       <c r="H158" s="1">
         <v>8.4E-7</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I158" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>7.9999999999999996E-7</v>
       </c>
@@ -4601,8 +5078,11 @@
       <c r="H159" s="1">
         <v>7.1999999999999999E-7</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I159" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>7.6000000000000003E-7</v>
       </c>
@@ -4627,8 +5107,11 @@
       <c r="H160" s="1">
         <v>7.4000000000000001E-7</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I160" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>7.1999999999999999E-7</v>
       </c>
@@ -4653,8 +5136,11 @@
       <c r="H161" s="1">
         <v>6.9999999999999997E-7</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I161" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>7.4000000000000001E-7</v>
       </c>
@@ -4679,8 +5165,11 @@
       <c r="H162" s="1">
         <v>6.6000000000000003E-7</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I162" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>7.1999999999999999E-7</v>
       </c>
@@ -4705,8 +5194,11 @@
       <c r="H163" s="1">
         <v>7.4000000000000001E-7</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I163" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>6.7999999999999995E-7</v>
       </c>
@@ -4731,8 +5223,11 @@
       <c r="H164" s="1">
         <v>7.4000000000000001E-7</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I164" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>1.1200000000000001E-6</v>
       </c>
@@ -4757,8 +5252,11 @@
       <c r="H165" s="1">
         <v>9.4E-7</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I165" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>2.34E-6</v>
       </c>
@@ -4783,8 +5281,11 @@
       <c r="H166" s="1">
         <v>1.66E-6</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I166" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>4.3000000000000003E-6</v>
       </c>
@@ -4809,8 +5310,11 @@
       <c r="H167" s="1">
         <v>3.4999999999999999E-6</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I167" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>6.7000000000000002E-6</v>
       </c>
@@ -4835,8 +5339,11 @@
       <c r="H168" s="1">
         <v>5.8599999999999998E-6</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I168" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>9.38E-6</v>
       </c>
@@ -4861,8 +5368,11 @@
       <c r="H169" s="1">
         <v>8.6999999999999997E-6</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I169" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>1.2099999999999999E-5</v>
       </c>
@@ -4887,8 +5397,11 @@
       <c r="H170" s="1">
         <v>1.1379999999999999E-5</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I170" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>1.49E-5</v>
       </c>
@@ -4913,8 +5426,11 @@
       <c r="H171" s="1">
         <v>1.4260000000000001E-5</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I171" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>1.7600000000000001E-5</v>
       </c>
@@ -4939,8 +5455,11 @@
       <c r="H172" s="1">
         <v>1.7640000000000001E-5</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I172" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>1.8819999999999999E-5</v>
       </c>
@@ -4965,8 +5484,11 @@
       <c r="H173" s="1">
         <v>2.122E-5</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I173" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2.2160000000000001E-5</v>
       </c>
@@ -4991,8 +5513,11 @@
       <c r="H174" s="1">
         <v>2.4919999999999999E-5</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I174" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>2.5740000000000001E-5</v>
       </c>
@@ -5017,8 +5542,11 @@
       <c r="H175" s="1">
         <v>2.8719999999999999E-5</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I175" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>2.934E-5</v>
       </c>
@@ -5043,8 +5571,11 @@
       <c r="H176" s="1">
         <v>3.188E-5</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I176" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>3.2199999999999997E-5</v>
       </c>
@@ -5069,8 +5600,11 @@
       <c r="H177" s="1">
         <v>3.3340000000000003E-5</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I177" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>3.4180000000000001E-5</v>
       </c>
@@ -5095,8 +5629,11 @@
       <c r="H178" s="1">
         <v>3.4520000000000002E-5</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I178" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>3.5639999999999998E-5</v>
       </c>
@@ -5121,8 +5658,11 @@
       <c r="H179" s="1">
         <v>3.5160000000000002E-5</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I179" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>3.612E-5</v>
       </c>
@@ -5147,8 +5687,11 @@
       <c r="H180" s="1">
         <v>3.5439999999999999E-5</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I180" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>3.5899999999999998E-5</v>
       </c>
@@ -5173,8 +5716,11 @@
       <c r="H181" s="1">
         <v>3.4839999999999998E-5</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I181" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>3.5080000000000003E-5</v>
       </c>
@@ -5199,8 +5745,11 @@
       <c r="H182" s="1">
         <v>3.3439999999999998E-5</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I182" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>3.3139999999999998E-5</v>
       </c>
@@ -5225,8 +5774,11 @@
       <c r="H183" s="1">
         <v>3.048E-5</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I183" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>3.008E-5</v>
       </c>
@@ -5251,8 +5803,11 @@
       <c r="H184" s="1">
         <v>2.7160000000000001E-5</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I184" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>2.656E-5</v>
       </c>
@@ -5277,8 +5832,11 @@
       <c r="H185" s="1">
         <v>2.3839999999999999E-5</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I185" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>2.296E-5</v>
       </c>
@@ -5303,8 +5861,11 @@
       <c r="H186" s="1">
         <v>2.048E-5</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I186" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>1.9279999999999998E-5</v>
       </c>
@@ -5329,8 +5890,11 @@
       <c r="H187" s="1">
         <v>1.6699999999999999E-5</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I187" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>1.5659999999999999E-5</v>
       </c>
@@ -5355,8 +5919,11 @@
       <c r="H188" s="1">
         <v>1.2619999999999999E-5</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I188" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>1.234E-5</v>
       </c>
@@ -5381,8 +5948,11 @@
       <c r="H189" s="1">
         <v>9.5000000000000005E-6</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I189" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>9.4800000000000007E-6</v>
       </c>
@@ -5407,8 +5977,11 @@
       <c r="H190" s="1">
         <v>7.2599999999999999E-6</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I190" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>7.3200000000000002E-6</v>
       </c>
@@ -5433,8 +6006,11 @@
       <c r="H191" s="1">
         <v>5.5199999999999997E-6</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I191" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>5.6799999999999998E-6</v>
       </c>
@@ -5459,8 +6035,11 @@
       <c r="H192" s="1">
         <v>4.0199999999999996E-6</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I192" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>4.3599999999999998E-6</v>
       </c>
@@ -5485,8 +6064,11 @@
       <c r="H193" s="1">
         <v>2.88E-6</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I193" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>3.0800000000000002E-6</v>
       </c>
@@ -5511,8 +6093,11 @@
       <c r="H194" s="1">
         <v>1.7400000000000001E-6</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I194" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>1.9800000000000001E-6</v>
       </c>
@@ -5537,8 +6122,11 @@
       <c r="H195" s="1">
         <v>1.08E-6</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I195" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>1.1999999999999999E-6</v>
       </c>
@@ -5563,8 +6151,11 @@
       <c r="H196" s="1">
         <v>6.7999999999999995E-7</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I196" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>6.4000000000000001E-7</v>
       </c>
@@ -5589,8 +6180,11 @@
       <c r="H197" s="1">
         <v>3.8000000000000001E-7</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I197" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>4.4000000000000002E-7</v>
       </c>
@@ -5615,8 +6209,11 @@
       <c r="H198" s="1">
         <v>3.2000000000000001E-7</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I198" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>3.8000000000000001E-7</v>
       </c>
@@ -5641,8 +6238,11 @@
       <c r="H199" s="1">
         <v>3.2000000000000001E-7</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I199" s="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>2.2000000000000001E-7</v>
       </c>
@@ -5667,8 +6267,11 @@
       <c r="H200" s="1">
         <v>1.9999999999999999E-7</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I200" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>1.8E-7</v>
       </c>
@@ -5693,8 +6296,11 @@
       <c r="H201" s="1">
         <v>1.9999999999999999E-7</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I201" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>2.2000000000000001E-7</v>
       </c>
@@ -5719,8 +6325,11 @@
       <c r="H202" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I202" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>1.6E-7</v>
       </c>
@@ -5745,8 +6354,11 @@
       <c r="H203" s="1">
         <v>1.8E-7</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I203" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>1.8E-7</v>
       </c>
@@ -5771,8 +6383,11 @@
       <c r="H204" s="1">
         <v>2.2000000000000001E-7</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I204" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -5797,8 +6412,11 @@
       <c r="H205" s="1">
         <v>1.6E-7</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I205" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>1.4000000000000001E-7</v>
       </c>
@@ -5823,8 +6441,11 @@
       <c r="H206" s="1">
         <v>1.4000000000000001E-7</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I206" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>1.6E-7</v>
       </c>
@@ -5849,8 +6470,11 @@
       <c r="H207" s="1">
         <v>1.6E-7</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I207" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>1.8E-7</v>
       </c>
@@ -5875,8 +6499,11 @@
       <c r="H208" s="1">
         <v>1.8E-7</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I208" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>1.4000000000000001E-7</v>
       </c>
@@ -5901,8 +6528,11 @@
       <c r="H209" s="1">
         <v>1.1999999999999999E-7</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I209" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -5927,8 +6557,11 @@
       <c r="H210" s="1">
         <v>5.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I210" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>2.2000000000000001E-7</v>
       </c>
@@ -5953,8 +6586,11 @@
       <c r="H211" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I211" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>1.1999999999999999E-7</v>
       </c>
@@ -5979,8 +6615,11 @@
       <c r="H212" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I212" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>1.4000000000000001E-7</v>
       </c>
@@ -6005,8 +6644,11 @@
       <c r="H213" s="1">
         <v>8.0000000000000002E-8</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I213" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -6031,8 +6673,11 @@
       <c r="H214" s="1">
         <v>5.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I214" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>1.4000000000000001E-7</v>
       </c>
@@ -6057,8 +6702,11 @@
       <c r="H215" s="1">
         <v>1.1999999999999999E-7</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I215" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>1.1999999999999999E-7</v>
       </c>
@@ -6083,8 +6731,11 @@
       <c r="H216" s="1">
         <v>4.0000000000000001E-8</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I216" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>8.0000000000000002E-8</v>
       </c>
@@ -6109,8 +6760,11 @@
       <c r="H217" s="1">
         <v>1.6E-7</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I217" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>1.4000000000000001E-7</v>
       </c>
@@ -6135,8 +6789,11 @@
       <c r="H218" s="1">
         <v>5.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I218" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -6161,8 +6818,11 @@
       <c r="H219" s="1">
         <v>1.4000000000000001E-7</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I219" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>5.9999999999999995E-8</v>
       </c>
@@ -6187,8 +6847,11 @@
       <c r="H220" s="1">
         <v>5.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I220" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>8.0000000000000002E-8</v>
       </c>
@@ -6213,8 +6876,11 @@
       <c r="H221" s="1">
         <v>5.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I221" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>8.0000000000000002E-8</v>
       </c>
@@ -6239,8 +6905,11 @@
       <c r="H222" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I222" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>1.6E-7</v>
       </c>
@@ -6265,8 +6934,11 @@
       <c r="H223" s="1">
         <v>1.6E-7</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I223" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>8.0000000000000002E-8</v>
       </c>
@@ -6291,8 +6963,11 @@
       <c r="H224" s="1">
         <v>2E-8</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I224" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -6317,8 +6992,11 @@
       <c r="H225" s="1">
         <v>8.0000000000000002E-8</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I225" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>5.9999999999999995E-8</v>
       </c>
@@ -6343,8 +7021,11 @@
       <c r="H226" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I226" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>5.9999999999999995E-8</v>
       </c>
@@ -6369,8 +7050,11 @@
       <c r="H227" s="1">
         <v>4.0000000000000001E-8</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I227" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>8.0000000000000002E-8</v>
       </c>
@@ -6395,8 +7079,11 @@
       <c r="H228" s="1">
         <v>8.0000000000000002E-8</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I228" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -6421,8 +7108,11 @@
       <c r="H229" s="1">
         <v>8.0000000000000002E-8</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I229" s="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>1.4000000000000001E-7</v>
       </c>
@@ -6447,8 +7137,11 @@
       <c r="H230" s="1">
         <v>5.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I230" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>1.6E-7</v>
       </c>
@@ -6473,8 +7166,11 @@
       <c r="H231" s="1">
         <v>2E-8</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I231" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>8.0000000000000002E-8</v>
       </c>
@@ -6499,8 +7195,11 @@
       <c r="H232" s="1">
         <v>1.1999999999999999E-7</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I232" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -6525,8 +7224,11 @@
       <c r="H233" s="1">
         <v>8.0000000000000002E-8</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I233" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>1.1999999999999999E-7</v>
       </c>
@@ -6551,8 +7253,11 @@
       <c r="H234" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I234" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>8.0000000000000002E-8</v>
       </c>
@@ -6577,8 +7282,11 @@
       <c r="H235" s="1">
         <v>8.0000000000000002E-8</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I235" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>5.9999999999999995E-8</v>
       </c>
@@ -6603,8 +7311,11 @@
       <c r="H236" s="1">
         <v>5.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I236" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -6629,8 +7340,11 @@
       <c r="H237" s="1">
         <v>1.4000000000000001E-7</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I237" s="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>5.9999999999999995E-8</v>
       </c>
@@ -6655,8 +7369,11 @@
       <c r="H238" s="1">
         <v>8.0000000000000002E-8</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I238" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -6681,8 +7398,11 @@
       <c r="H239" s="1">
         <v>8.0000000000000002E-8</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I239" s="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>5.9999999999999995E-8</v>
       </c>
@@ -6707,8 +7427,11 @@
       <c r="H240" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I240" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>4.0000000000000001E-8</v>
       </c>
@@ -6733,8 +7456,11 @@
       <c r="H241" s="1">
         <v>2E-8</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I241" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>4.0000000000000001E-8</v>
       </c>
@@ -6759,8 +7485,11 @@
       <c r="H242" s="1">
         <v>8.0000000000000002E-8</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I242" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>4.0000000000000001E-8</v>
       </c>
@@ -6785,8 +7514,11 @@
       <c r="H243" s="1">
         <v>5.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I243" s="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -6811,8 +7543,11 @@
       <c r="H244" s="1">
         <v>4.0000000000000001E-8</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I244" s="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>8.0000000000000002E-8</v>
       </c>
@@ -6837,8 +7572,11 @@
       <c r="H245" s="1">
         <v>5.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I245" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>2E-8</v>
       </c>
@@ -6863,8 +7601,11 @@
       <c r="H246" s="1">
         <v>5.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I246" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>2E-8</v>
       </c>
@@ -6889,8 +7630,11 @@
       <c r="H247" s="1">
         <v>2E-8</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I247" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -6915,8 +7659,11 @@
       <c r="H248" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I248" s="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>8.0000000000000002E-8</v>
       </c>
@@ -6941,8 +7688,11 @@
       <c r="H249" s="1">
         <v>1.6E-7</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I249" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>4.0000000000000001E-8</v>
       </c>
@@ -6967,8 +7717,11 @@
       <c r="H250" s="1">
         <v>5.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I250" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>5.9999999999999995E-8</v>
       </c>
@@ -6992,6 +7745,9 @@
       </c>
       <c r="H251" s="1">
         <v>1.4000000000000001E-7</v>
+      </c>
+      <c r="I251" s="1">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -7004,7 +7760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC304C7E-A44F-4F32-AD93-BD5046F9E614}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
@@ -8765,6 +9521,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B429AEABB2DF9F4E902ED616D665133F" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="72176fb6fdbebcfc5c55f406aa702761">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5cbbcd18-735e-4945-9551-c599062a39c3" xmlns:ns4="3fad2bf6-c688-432e-8b8e-5df8ea12fc2c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fc5e7d3806a898b42ab9efa7264b5e6" ns3:_="" ns4:_="">
     <xsd:import namespace="5cbbcd18-735e-4945-9551-c599062a39c3"/>
@@ -8997,15 +9762,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9015,6 +9771,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23FDC6D0-47AB-4FF7-B146-953F11B0484D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{982D48BE-A654-447E-9B78-5DA905DEA6C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9029,14 +9793,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23FDC6D0-47AB-4FF7-B146-953F11B0484D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
